--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2Stallions\git\TMS-Backup\SeleniumAutomationFramework\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2Stallions\eclipse-workspace\Testing\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEAB975-AC73-4D91-AD73-89516E700750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D64260-214D-4A64-8397-42A5860B38E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12336" tabRatio="565" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1431,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1469,7 +1469,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -1486,7 +1486,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -1503,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1520,7 +1520,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>14</v>
@@ -1537,7 +1537,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -1571,7 +1571,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>21</v>
@@ -1588,7 +1588,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -2677,9 +2677,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:EQ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA89" sqref="AA89"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -2900,7 +2900,7 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>232</v>
@@ -3091,7 +3091,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>232</v>
@@ -3282,7 +3282,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>232</v>
@@ -3473,7 +3473,7 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>232</v>
@@ -3664,7 +3664,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>232</v>
@@ -3855,7 +3855,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>232</v>
@@ -4046,7 +4046,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>232</v>
@@ -4237,7 +4237,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>232</v>
@@ -4428,7 +4428,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>232</v>
@@ -4619,7 +4619,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>232</v>
@@ -4810,7 +4810,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>232</v>
@@ -5001,7 +5001,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>232</v>
@@ -5192,7 +5192,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>356</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>232</v>
@@ -19529,7 +19529,7 @@
         <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>356</v>
       </c>
       <c r="C89" t="s">
         <v>232</v>
